--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\API16a\426 - Software agil entwicklen\Projekt_Besar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotcha\Desktop\426\modul426\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -262,7 +262,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -355,7 +355,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,13 +1494,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -265,7 +265,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -358,7 +358,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,14 +1509,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C6" si="0">B5-D5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1528,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6" si="0">B6-D6</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -265,7 +265,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -358,7 +358,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,13 +1509,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1"/>
     </row>

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -358,7 +358,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,10 +1512,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
     </row>

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -265,7 +265,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -358,7 +358,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,13 +1509,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1"/>
     </row>

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -202,29 +202,100 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$6</c:f>
@@ -268,7 +339,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,29 +366,100 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$6</c:f>
@@ -361,7 +503,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,9 +515,174 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF5F-4A1F-8B59-8C8881B84FDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -395,9 +702,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -406,16 +714,15 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -429,9 +736,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -457,9 +763,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -468,16 +775,15 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -491,9 +797,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -518,7 +823,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82007918653025513"/>
+          <c:y val="0.38080678939522805"/>
+          <c:w val="0.10735845519310086"/>
+          <c:h val="0.22444913897957877"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -534,9 +848,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -554,11 +867,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -586,10 +902,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -623,211 +939,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -838,9 +978,225 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -852,14 +1208,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -871,14 +1226,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -890,14 +1244,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -909,9 +1257,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -928,9 +1277,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -942,14 +1292,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -961,14 +1310,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -980,27 +1328,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1008,9 +1355,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1020,14 +1366,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1039,12 +1384,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1053,14 +1397,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1069,9 +1414,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1081,17 +1425,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1103,37 +1448,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1148,10 +1486,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1439,7 +1777,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,11 +1862,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6" si="0">B6-D6</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,7 +51,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -59,15 +60,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -103,17 +110,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,24 +156,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,7 +385,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +549,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +713,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,14 +1528,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1776,99 +1822,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>11</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>18</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>11</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
       </c>
       <c r="E6" s="1"/>
     </row>

--- a/Dokumentation/BurndownChart.xlsx
+++ b/Dokumentation/BurndownChart.xlsx
@@ -300,7 +300,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -464,7 +464,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -628,7 +628,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -759,6 +759,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="1600"/>
+                  <a:t>Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -780,7 +840,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -820,6 +880,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="1600"/>
+                  <a:t>Task</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -841,7 +960,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -892,7 +1011,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -1529,13 +1648,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1822,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
